--- a/main/ValueSet-bc-contact-point-system-value-set.xlsx
+++ b/main/ValueSet-bc-contact-point-system-value-set.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-27T22:40:13+00:00</t>
+    <t>2024-10-07T22:34:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ValueSet-bc-contact-point-system-value-set.xlsx
+++ b/main/ValueSet-bc-contact-point-system-value-set.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-07T22:34:38+00:00</t>
+    <t>2024-10-11T20:53:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ValueSet-bc-contact-point-system-value-set.xlsx
+++ b/main/ValueSet-bc-contact-point-system-value-set.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-11T20:53:55+00:00</t>
+    <t>2024-10-11T23:14:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ValueSet-bc-contact-point-system-value-set.xlsx
+++ b/main/ValueSet-bc-contact-point-system-value-set.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-11T23:14:19+00:00</t>
+    <t>2024-10-11T23:23:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ValueSet-bc-contact-point-system-value-set.xlsx
+++ b/main/ValueSet-bc-contact-point-system-value-set.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-11T23:23:09+00:00</t>
+    <t>2024-10-11T23:26:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ValueSet-bc-contact-point-system-value-set.xlsx
+++ b/main/ValueSet-bc-contact-point-system-value-set.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-11T23:26:29+00:00</t>
+    <t>2025-08-27T22:33:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
